--- a/biology/Médecine/Vericiguat/Vericiguat.xlsx
+++ b/biology/Médecine/Vericiguat/Vericiguat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vericiguat est une molécule activatrice de la guanylate cyclase soluble, indiqué dans l'insuffisance cardiaque. Elle est structurellement très proche du riociguat.
 </t>
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il augmente la sensibilité au monoxyde d'azote en favorisant la synthèse de la guanosine monophosphate cyclique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il augmente la sensibilité au monoxyde d'azote en favorisant la synthèse de la guanosine monophosphate cyclique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa demi-vie permet une seule prise journalière par voie orale, ce qui le distingue du riociguat[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa demi-vie permet une seule prise journalière par voie orale, ce qui le distingue du riociguat.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'insuffisance cardiaque à fraction d'éjection basse, il permet une diminution de la mortalité ainsi que le nombre de réhospitalisations[3]. En cas de fraction d'éjection conservé, son efficacité sur les symptômes reste discuté[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'insuffisance cardiaque à fraction d'éjection basse, il permet une diminution de la mortalité ainsi que le nombre de réhospitalisations. En cas de fraction d'éjection conservé, son efficacité sur les symptômes reste discuté,.
 </t>
         </is>
       </c>
